--- a/inst/extdata/watercostaccra1.xlsx
+++ b/inst/extdata/watercostaccra1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -314,9 +314,6 @@
     <t xml:space="preserve">pay_to_fetch</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">last_7_days</t>
   </si>
   <si>
@@ -339,12 +336,6 @@
   </si>
   <si>
     <t xml:space="preserve">commercial tap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">child</t>
@@ -380,22 +371,10 @@
     <t xml:space="preserve">last_3_days</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25</t>
-  </si>
-  <si>
     <t xml:space="preserve">last_year</t>
   </si>
   <si>
     <t xml:space="preserve">other_services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.571428571428571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1142857142857143</t>
   </si>
   <si>
     <t xml:space="preserve">vended_water</t>
@@ -404,25 +383,7 @@
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.666666666666667</t>
-  </si>
-  <si>
     <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.142857142857142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8285714285714283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1428571428571423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3061224489795917</t>
   </si>
   <si>
     <t xml:space="preserve">piped_to_compound</t>
@@ -431,46 +392,16 @@
     <t xml:space="preserve">last_30_days</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">outside_home</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.666666666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.428571428571427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4897959183673466</t>
   </si>
   <si>
     <t xml:space="preserve">over_year_ago</t>
   </si>
   <si>
     <t xml:space="preserve">house</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3333333333333339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69444444444444453</t>
   </si>
   <si>
     <t xml:space="preserve">kg</t>
@@ -494,22 +425,7 @@
     <t xml:space="preserve">salon</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">piped to compound</t>
@@ -518,337 +434,28 @@
     <t xml:space="preserve">multistory_apt</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44444444444444442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8571428571428572</t>
-  </si>
-  <si>
     <t xml:space="preserve">settle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4285714285714286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">distance</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55555555555555558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1428571428571428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22857142857142856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1428571428571432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82857142857142863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83333333333333337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6428571428571429</t>
-  </si>
-  <si>
     <t xml:space="preserve">wood_shack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5714285714285712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91428571428571426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5555555555555556</t>
   </si>
   <si>
     <t xml:space="preserve">no_structure</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1071428571428572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6428571428571432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.857142857142858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.428571428571431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3469387755102042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.285714285714285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7142857142857135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6500000000000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.571428571428571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2857142857142856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.428571428571429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1071428571428572</t>
-  </si>
-  <si>
     <t xml:space="preserve">tailoring</t>
   </si>
   <si>
-    <t xml:space="preserve">28.857142857142858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1224489795918364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.142857142857142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1904761904761902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.833333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8571428571428568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.428571428571427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8571428571428568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.714285714285714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2380952380952381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4285714285714288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.428571428571427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4428571428571426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6666666666666661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.142857142857142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7142857142857144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5714285714285712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2857142857142856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1857142857142859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0371428571428571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0571428571428569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0285714285714285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5142857142857147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50285714285714289</t>
-  </si>
-  <si>
     <t xml:space="preserve">boil;settle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6285714285714286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81428571428571428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2000000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31428571428571433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6666666666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4571428571428573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1142857142857143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1714285714285717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0285714285714287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53333333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8571428571428571</t>
   </si>
   <si>
     <t xml:space="preserve">borehole</t>
   </si>
   <si>
     <t xml:space="preserve">filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5714285714285714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3571428571428572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45238095238095238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
   </si>
 </sst>
 </file>
@@ -1609,23 +1216,23 @@
       <c r="BG2" t="s">
         <v>99</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
         <v>100</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>101</v>
       </c>
       <c r="BL2" t="n">
         <v>2</v>
       </c>
       <c r="BM2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BN2" t="b">
         <v>0</v>
@@ -1696,7 +1303,7 @@
         <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>91</v>
@@ -1720,19 +1327,19 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
         <v>104</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>105</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>106</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>108</v>
       </c>
       <c r="P3" t="s">
         <v>95</v>
@@ -1858,11 +1465,11 @@
       <c r="BG3" t="s">
         <v>99</v>
       </c>
-      <c r="BH3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>110</v>
+      <c r="BH3" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>4</v>
       </c>
       <c r="BJ3" t="b">
         <v>0</v>
@@ -1944,13 +1551,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G4" t="n">
         <v>20</v>
@@ -1965,16 +1572,16 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -2013,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB4" t="b">
         <v>0</v>
@@ -2040,7 +1647,7 @@
         <v>97</v>
       </c>
       <c r="AJ4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AK4" t="b">
         <v>0</v>
@@ -2101,7 +1708,7 @@
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH4"/>
       <c r="BI4"/>
@@ -2109,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="BK4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL4" t="n">
         <v>2</v>
       </c>
       <c r="BM4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN4" t="b">
         <v>0</v>
@@ -2328,23 +1935,23 @@
       <c r="BG5" t="s">
         <v>99</v>
       </c>
-      <c r="BH5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>110</v>
+      <c r="BH5" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>4</v>
       </c>
       <c r="BJ5" t="b">
         <v>1</v>
       </c>
       <c r="BK5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
       </c>
       <c r="BM5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN5" t="b">
         <v>0</v>
@@ -2569,23 +2176,23 @@
       <c r="BG6" t="s">
         <v>99</v>
       </c>
-      <c r="BH6" t="s">
-        <v>122</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>123</v>
+      <c r="BH6" t="n">
+        <v>32</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>3</v>
       </c>
       <c r="BJ6" t="b">
         <v>1</v>
       </c>
       <c r="BK6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN6" t="b">
         <v>0</v>
@@ -2666,7 +2273,7 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -2675,7 +2282,7 @@
         <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" t="n">
         <v>40</v>
@@ -2690,19 +2297,19 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" t="s">
         <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
       </c>
       <c r="P7" t="s">
         <v>95</v>
@@ -2738,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB7" t="b">
         <v>0</v>
@@ -2806,23 +2413,23 @@
       <c r="BG7" t="s">
         <v>99</v>
       </c>
-      <c r="BH7" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>127</v>
+      <c r="BH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3</v>
       </c>
       <c r="BJ7" t="b">
         <v>1</v>
       </c>
       <c r="BK7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
       </c>
       <c r="BM7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN7" t="b">
         <v>0</v>
@@ -2893,7 +2500,7 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
@@ -2917,16 +2524,16 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
@@ -2963,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -3031,23 +2638,23 @@
       <c r="BG8" t="s">
         <v>99</v>
       </c>
-      <c r="BH8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>131</v>
+      <c r="BH8" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>6</v>
       </c>
       <c r="BJ8" t="b">
         <v>1</v>
       </c>
       <c r="BK8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL8" t="n">
         <v>2</v>
       </c>
       <c r="BM8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN8" t="b">
         <v>0</v>
@@ -3112,7 +2719,7 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -3121,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G9" t="n">
         <v>30</v>
@@ -3176,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB9" t="b">
         <v>0</v>
@@ -3244,23 +2851,23 @@
       <c r="BG9" t="s">
         <v>99</v>
       </c>
-      <c r="BH9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>134</v>
+      <c r="BH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>3</v>
       </c>
       <c r="BJ9" t="b">
         <v>1</v>
       </c>
       <c r="BK9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL9" t="n">
         <v>0</v>
       </c>
       <c r="BM9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN9" t="b">
         <v>0</v>
@@ -3341,7 +2948,7 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -3365,16 +2972,16 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
         <v>95</v>
@@ -3503,23 +3110,23 @@
       <c r="BG10" t="s">
         <v>99</v>
       </c>
-      <c r="BH10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>136</v>
+      <c r="BH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1</v>
       </c>
       <c r="BJ10" t="b">
         <v>1</v>
       </c>
       <c r="BK10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL10" t="n">
         <v>2</v>
       </c>
       <c r="BM10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BN10" t="b">
         <v>0</v>
@@ -3590,7 +3197,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
@@ -3614,16 +3221,16 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
@@ -3660,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB11" t="b">
         <v>0</v>
@@ -3687,7 +3294,7 @@
         <v>97</v>
       </c>
       <c r="AJ11" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="b">
         <v>1</v>
@@ -3726,7 +3333,7 @@
       <c r="BE11"/>
       <c r="BF11"/>
       <c r="BG11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH11"/>
       <c r="BI11"/>
@@ -3734,13 +3341,13 @@
         <v>1</v>
       </c>
       <c r="BK11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN11" t="b">
         <v>0</v>
@@ -3875,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB12" t="b">
         <v>0</v>
@@ -3943,23 +3550,23 @@
       <c r="BG12" t="s">
         <v>99</v>
       </c>
-      <c r="BH12" t="s">
-        <v>139</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>140</v>
+      <c r="BH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
       </c>
       <c r="BJ12" t="b">
         <v>1</v>
       </c>
       <c r="BK12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
       </c>
       <c r="BM12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN12" t="b">
         <v>0</v>
@@ -4039,7 +3646,7 @@
         <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G13" t="n">
         <v>30</v>
@@ -4054,19 +3661,19 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" t="s">
         <v>106</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>107</v>
-      </c>
-      <c r="O13" t="s">
-        <v>108</v>
       </c>
       <c r="P13" t="s">
         <v>98</v>
@@ -4170,23 +3777,23 @@
       <c r="BG13" t="s">
         <v>99</v>
       </c>
-      <c r="BH13" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>143</v>
+      <c r="BH13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>5</v>
       </c>
       <c r="BJ13" t="b">
         <v>1</v>
       </c>
       <c r="BK13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL13" t="n">
         <v>1</v>
       </c>
       <c r="BM13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN13" t="b">
         <v>0</v>
@@ -4266,7 +3873,7 @@
         <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" t="n">
         <v>17</v>
@@ -4281,19 +3888,19 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" t="s">
         <v>106</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>107</v>
-      </c>
-      <c r="O14" t="s">
-        <v>108</v>
       </c>
       <c r="P14" t="s">
         <v>95</v>
@@ -4419,23 +4026,23 @@
       <c r="BG14" t="s">
         <v>99</v>
       </c>
-      <c r="BH14" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>145</v>
+      <c r="BH14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>3</v>
       </c>
       <c r="BJ14" t="b">
         <v>1</v>
       </c>
       <c r="BK14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
       </c>
       <c r="BM14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN14" t="b">
         <v>0</v>
@@ -4509,7 +4116,7 @@
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
@@ -4660,23 +4267,23 @@
       <c r="BG15" t="s">
         <v>99</v>
       </c>
-      <c r="BH15" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>148</v>
+      <c r="BH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>2</v>
       </c>
       <c r="BJ15" t="b">
         <v>1</v>
       </c>
       <c r="BK15" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
       </c>
       <c r="BM15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN15" t="b">
         <v>0</v>
@@ -4747,10 +4354,10 @@
         <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
         <v>92</v>
@@ -4901,23 +4508,23 @@
       <c r="BG16" t="s">
         <v>99</v>
       </c>
-      <c r="BH16" t="s">
-        <v>151</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>152</v>
+      <c r="BH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
       </c>
       <c r="BJ16" t="b">
         <v>1</v>
       </c>
       <c r="BK16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL16" t="n">
         <v>2</v>
       </c>
       <c r="BM16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN16" t="b">
         <v>0</v>
@@ -4995,16 +4602,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
@@ -5022,16 +4629,16 @@
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="s">
@@ -5068,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB17" t="b">
         <v>0</v>
@@ -5092,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="AJ17" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="AK17" t="b">
         <v>1</v>
@@ -5154,7 +4761,7 @@
       <c r="BE17"/>
       <c r="BF17"/>
       <c r="BG17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH17"/>
       <c r="BI17"/>
@@ -5230,19 +4837,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G18" t="n">
         <v>50</v>
@@ -5257,16 +4864,16 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O18"/>
       <c r="P18" t="s">
@@ -5330,7 +4937,7 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="b">
         <v>1</v>
@@ -5371,23 +4978,23 @@
       <c r="BG18" t="s">
         <v>99</v>
       </c>
-      <c r="BH18" t="s">
-        <v>160</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>161</v>
+      <c r="BH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
       </c>
       <c r="BJ18" t="b">
         <v>1</v>
       </c>
       <c r="BK18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
       </c>
       <c r="BM18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN18" t="b">
         <v>0</v>
@@ -5465,19 +5072,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G19" t="n">
         <v>50</v>
@@ -5559,7 +5166,7 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="b">
         <v>1</v>
@@ -5620,13 +5227,13 @@
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>164</v>
+        <v>137</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
       </c>
       <c r="BJ19" t="b">
         <v>0</v>
@@ -5700,19 +5307,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" t="n">
         <v>38</v>
@@ -5734,40 +5341,40 @@
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
         <v>137</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V20" t="b">
-        <v>0</v>
-      </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>162</v>
       </c>
       <c r="AB20" t="b">
         <v>0</v>
@@ -5794,7 +5401,7 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK20" t="b">
         <v>1</v>
@@ -5835,11 +5442,11 @@
       <c r="BG20" t="s">
         <v>99</v>
       </c>
-      <c r="BH20" t="s">
-        <v>139</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>165</v>
+      <c r="BH20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
       </c>
       <c r="BJ20" t="b">
         <v>0</v>
@@ -5919,19 +5526,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G21" t="n">
         <v>16</v>
@@ -5946,19 +5553,19 @@
         <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O21" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="P21" t="s">
         <v>95</v>
@@ -5994,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB21" t="b">
         <v>0</v>
@@ -6021,7 +5628,7 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="b">
         <v>1</v>
@@ -6060,7 +5667,7 @@
       <c r="BE21"/>
       <c r="BF21"/>
       <c r="BG21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH21"/>
       <c r="BI21"/>
@@ -6068,13 +5675,13 @@
         <v>1</v>
       </c>
       <c r="BK21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL21" t="n">
         <v>0</v>
       </c>
       <c r="BM21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN21" t="b">
         <v>0</v>
@@ -6152,19 +5759,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
         <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G22" t="n">
         <v>40</v>
@@ -6179,16 +5786,16 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
@@ -6225,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB22" t="b">
         <v>0</v>
@@ -6252,7 +5859,7 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AK22" t="b">
         <v>1</v>
@@ -6291,7 +5898,7 @@
       <c r="BE22"/>
       <c r="BF22"/>
       <c r="BG22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH22"/>
       <c r="BI22"/>
@@ -6373,16 +5980,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
         <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
         <v>93</v>
@@ -6440,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB23" t="b">
         <v>0</v>
@@ -6467,7 +6074,7 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK23" t="b">
         <v>1</v>
@@ -6528,7 +6135,7 @@
       <c r="BE23"/>
       <c r="BF23"/>
       <c r="BG23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH23"/>
       <c r="BI23"/>
@@ -6536,13 +6143,13 @@
         <v>1</v>
       </c>
       <c r="BK23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL23" t="n">
         <v>0</v>
       </c>
       <c r="BM23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN23" t="b">
         <v>0</v>
@@ -6620,19 +6227,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G24" t="n">
         <v>30</v>
@@ -6647,19 +6254,19 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" t="s">
         <v>106</v>
       </c>
-      <c r="N24" t="s">
-        <v>107</v>
-      </c>
       <c r="O24" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="P24" t="s">
         <v>95</v>
@@ -6695,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB24" t="b">
         <v>0</v>
@@ -6722,7 +6329,7 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="b">
         <v>1</v>
@@ -6783,7 +6390,7 @@
       <c r="BE24"/>
       <c r="BF24"/>
       <c r="BG24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH24"/>
       <c r="BI24"/>
@@ -6791,13 +6398,13 @@
         <v>1</v>
       </c>
       <c r="BK24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL24" t="n">
         <v>0</v>
       </c>
       <c r="BM24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN24" t="b">
         <v>0</v>
@@ -6869,13 +6476,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
         <v>92</v>
@@ -6896,19 +6503,19 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" t="s">
         <v>106</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>107</v>
-      </c>
-      <c r="O25" t="s">
-        <v>108</v>
       </c>
       <c r="P25" t="s">
         <v>95</v>
@@ -6944,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB25" t="b">
         <v>0</v>
@@ -6971,7 +6578,7 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK25" t="b">
         <v>1</v>
@@ -7034,11 +6641,11 @@
       <c r="BG25" t="s">
         <v>99</v>
       </c>
-      <c r="BH25" t="s">
-        <v>168</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>169</v>
+      <c r="BH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1</v>
       </c>
       <c r="BJ25" t="b">
         <v>0</v>
@@ -7124,19 +6731,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G26" t="n">
         <v>30</v>
@@ -7259,23 +6866,23 @@
       <c r="BG26" t="s">
         <v>99</v>
       </c>
-      <c r="BH26" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>170</v>
+      <c r="BH26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
       </c>
       <c r="BJ26" t="b">
         <v>1</v>
       </c>
       <c r="BK26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL26" t="n">
         <v>0</v>
       </c>
       <c r="BM26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN26" t="b">
         <v>0</v>
@@ -7353,16 +6960,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>93</v>
@@ -7380,55 +6987,55 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
         <v>114</v>
-      </c>
-      <c r="L27" t="s">
-        <v>115</v>
-      </c>
-      <c r="M27" t="s">
-        <v>128</v>
-      </c>
-      <c r="N27" t="s">
-        <v>107</v>
-      </c>
-      <c r="O27" t="s">
-        <v>166</v>
-      </c>
-      <c r="P27" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U27" t="b">
-        <v>0</v>
-      </c>
-      <c r="V27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W27" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>117</v>
       </c>
       <c r="AB27" t="b">
         <v>0</v>
@@ -7455,7 +7062,7 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="b">
         <v>1</v>
@@ -7518,23 +7125,23 @@
       <c r="BG27" t="s">
         <v>99</v>
       </c>
-      <c r="BH27" t="s">
-        <v>130</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>171</v>
+      <c r="BH27" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>2</v>
       </c>
       <c r="BJ27" t="b">
         <v>1</v>
       </c>
       <c r="BK27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL27" t="n">
         <v>4</v>
       </c>
       <c r="BM27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN27" t="b">
         <v>0</v>
@@ -7612,19 +7219,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
         <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G28" t="n">
         <v>60</v>
@@ -7639,19 +7246,19 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" t="s">
         <v>106</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>107</v>
-      </c>
-      <c r="O28" t="s">
-        <v>108</v>
       </c>
       <c r="P28" t="s">
         <v>95</v>
@@ -7711,10 +7318,10 @@
         <v>1</v>
       </c>
       <c r="AI28" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="b">
         <v>1</v>
@@ -7775,25 +7382,25 @@
       <c r="BE28"/>
       <c r="BF28"/>
       <c r="BG28" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>174</v>
+        <v>137</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1</v>
       </c>
       <c r="BJ28" t="b">
         <v>1</v>
       </c>
       <c r="BK28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL28" t="n">
         <v>0.5</v>
       </c>
       <c r="BM28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN28" t="b">
         <v>0</v>
@@ -7871,19 +7478,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
         <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -8026,11 +7633,11 @@
       <c r="BG29" t="s">
         <v>99</v>
       </c>
-      <c r="BH29" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>110</v>
+      <c r="BH29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>4</v>
       </c>
       <c r="BJ29" t="b">
         <v>0</v>
@@ -8110,19 +7717,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G30" t="n">
         <v>27</v>
@@ -8137,55 +7744,55 @@
         <v>10</v>
       </c>
       <c r="K30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L30" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" t="s">
+        <v>138</v>
+      </c>
+      <c r="P30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
         <v>114</v>
-      </c>
-      <c r="L30" t="s">
-        <v>115</v>
-      </c>
-      <c r="M30" t="s">
-        <v>106</v>
-      </c>
-      <c r="N30" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" t="s">
-        <v>166</v>
-      </c>
-      <c r="P30" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V30" t="b">
-        <v>0</v>
-      </c>
-      <c r="W30" t="b">
-        <v>0</v>
-      </c>
-      <c r="X30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>117</v>
       </c>
       <c r="AB30" t="b">
         <v>0</v>
@@ -8212,7 +7819,7 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK30" t="b">
         <v>1</v>
@@ -8275,23 +7882,23 @@
       <c r="BG30" t="s">
         <v>99</v>
       </c>
-      <c r="BH30" t="s">
-        <v>175</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>168</v>
+      <c r="BH30" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>7</v>
       </c>
       <c r="BJ30" t="b">
         <v>1</v>
       </c>
       <c r="BK30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL30" t="n">
         <v>1</v>
       </c>
       <c r="BM30" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="BN30" t="b">
         <v>0</v>
@@ -8369,19 +7976,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G31" t="n">
         <v>21</v>
@@ -8396,19 +8003,19 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" t="s">
         <v>106</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>107</v>
-      </c>
-      <c r="O31" t="s">
-        <v>108</v>
       </c>
       <c r="P31" t="s">
         <v>95</v>
@@ -8444,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB31" t="b">
         <v>0</v>
@@ -8471,7 +8078,7 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK31" t="b">
         <v>1</v>
@@ -8534,23 +8141,23 @@
       <c r="BG31" t="s">
         <v>99</v>
       </c>
-      <c r="BH31" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>178</v>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
       </c>
       <c r="BJ31" t="b">
         <v>1</v>
       </c>
       <c r="BK31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL31" t="n">
         <v>0</v>
       </c>
       <c r="BM31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN31" t="b">
         <v>0</v>
@@ -8628,19 +8235,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
         <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G32" t="n">
         <v>20</v>
@@ -8695,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB32" t="b">
         <v>0</v>
@@ -8722,7 +8329,7 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="b">
         <v>1</v>
@@ -8783,7 +8390,7 @@
       <c r="BE32"/>
       <c r="BF32"/>
       <c r="BG32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH32"/>
       <c r="BI32"/>
@@ -8791,13 +8398,13 @@
         <v>1</v>
       </c>
       <c r="BK32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL32" t="n">
         <v>0</v>
       </c>
       <c r="BM32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN32" t="b">
         <v>0</v>
@@ -8875,19 +8482,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
         <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G33" t="n">
         <v>30</v>
@@ -8902,19 +8509,19 @@
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s">
+        <v>106</v>
+      </c>
+      <c r="O33" t="s">
         <v>107</v>
-      </c>
-      <c r="O33" t="s">
-        <v>108</v>
       </c>
       <c r="P33" t="s">
         <v>95</v>
@@ -8950,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB33" t="b">
         <v>0</v>
@@ -9018,23 +8625,23 @@
       <c r="BG33" t="s">
         <v>99</v>
       </c>
-      <c r="BH33" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>165</v>
+      <c r="BH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
       </c>
       <c r="BJ33" t="b">
         <v>1</v>
       </c>
       <c r="BK33" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL33" t="n">
         <v>0</v>
       </c>
       <c r="BM33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN33" t="b">
         <v>0</v>
@@ -9106,10 +8713,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>91</v>
@@ -9118,7 +8725,7 @@
         <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G34" t="n">
         <v>55</v>
@@ -9263,23 +8870,23 @@
       <c r="BG34" t="s">
         <v>99</v>
       </c>
-      <c r="BH34" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>180</v>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
       </c>
       <c r="BJ34" t="b">
         <v>1</v>
       </c>
       <c r="BK34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL34" t="n">
         <v>2</v>
       </c>
       <c r="BM34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN34" t="b">
         <v>0</v>
@@ -9357,10 +8964,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>91</v>
@@ -9369,7 +8976,7 @@
         <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G35" t="n">
         <v>9</v>
@@ -9384,19 +8991,19 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" t="s">
         <v>106</v>
       </c>
-      <c r="N35" t="s">
-        <v>107</v>
-      </c>
       <c r="O35" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="P35" t="s">
         <v>95</v>
@@ -9459,7 +9066,7 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK35" t="b">
         <v>1</v>
@@ -9520,7 +9127,7 @@
       <c r="BE35"/>
       <c r="BF35"/>
       <c r="BG35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH35"/>
       <c r="BI35"/>
@@ -9528,13 +9135,13 @@
         <v>1</v>
       </c>
       <c r="BK35" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="BL35" t="n">
         <v>0</v>
       </c>
       <c r="BM35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN35" t="b">
         <v>0</v>
@@ -9612,10 +9219,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
         <v>91</v>
@@ -9624,7 +9231,7 @@
         <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G36" t="n">
         <v>70</v>
@@ -9639,16 +9246,16 @@
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N36" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O36"/>
       <c r="P36" t="s">
@@ -9685,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB36" t="b">
         <v>0</v>
@@ -9712,7 +9319,7 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AK36" t="b">
         <v>1</v>
@@ -9751,7 +9358,7 @@
       <c r="BE36"/>
       <c r="BF36"/>
       <c r="BG36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH36"/>
       <c r="BI36"/>
@@ -9759,13 +9366,13 @@
         <v>1</v>
       </c>
       <c r="BK36" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL36" t="n">
         <v>0</v>
       </c>
       <c r="BM36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN36" t="b">
         <v>0</v>
@@ -9837,13 +9444,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
         <v>92</v>
@@ -9904,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB37" t="b">
         <v>0</v>
@@ -9994,23 +9601,23 @@
       <c r="BG37" t="s">
         <v>99</v>
       </c>
-      <c r="BH37" t="s">
-        <v>181</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>182</v>
+      <c r="BH37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
       </c>
       <c r="BJ37" t="b">
         <v>1</v>
       </c>
       <c r="BK37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL37" t="n">
         <v>0</v>
       </c>
       <c r="BM37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN37" t="b">
         <v>0</v>
@@ -10088,10 +9695,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
         <v>91</v>
@@ -10115,16 +9722,16 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O38"/>
       <c r="P38" t="s">
@@ -10161,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="AA38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB38" t="b">
         <v>0</v>
@@ -10188,7 +9795,7 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="b">
         <v>1</v>
@@ -10249,7 +9856,7 @@
       <c r="BE38"/>
       <c r="BF38"/>
       <c r="BG38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH38"/>
       <c r="BI38"/>
@@ -10257,13 +9864,13 @@
         <v>1</v>
       </c>
       <c r="BK38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL38" t="n">
         <v>0</v>
       </c>
       <c r="BM38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN38" t="b">
         <v>0</v>
@@ -10341,19 +9948,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G39" t="n">
         <v>17</v>
@@ -10368,13 +9975,13 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N39" t="s">
         <v>94</v>
@@ -10414,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB39" t="b">
         <v>0</v>
@@ -10438,10 +10045,10 @@
         <v>0</v>
       </c>
       <c r="AI39" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="AJ39" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="b">
         <v>1</v>
@@ -10502,7 +10109,7 @@
       <c r="BE39"/>
       <c r="BF39"/>
       <c r="BG39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH39"/>
       <c r="BI39"/>
@@ -10514,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="BM39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN39" t="b">
         <v>0</v>
@@ -10592,19 +10199,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
         <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G40" t="n">
         <v>7</v>
@@ -10619,19 +10226,19 @@
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40" t="s">
         <v>107</v>
-      </c>
-      <c r="O40" t="s">
-        <v>108</v>
       </c>
       <c r="P40" t="s">
         <v>95</v>
@@ -10667,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB40" t="b">
         <v>0</v>
@@ -10694,7 +10301,7 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="b">
         <v>1</v>
@@ -10757,23 +10364,23 @@
       <c r="BG40" t="s">
         <v>99</v>
       </c>
-      <c r="BH40" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI40" t="s">
-        <v>184</v>
+      <c r="BH40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0</v>
       </c>
       <c r="BJ40" t="b">
         <v>1</v>
       </c>
       <c r="BK40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL40" t="n">
         <v>0</v>
       </c>
       <c r="BM40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN40" t="b">
         <v>0</v>
@@ -10851,10 +10458,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>91</v>
@@ -10863,7 +10470,7 @@
         <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G41" t="n">
         <v>29</v>
@@ -10878,16 +10485,16 @@
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M41" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O41" t="s">
         <v>95</v>
@@ -10926,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB41" t="b">
         <v>0</v>
@@ -11016,23 +10623,23 @@
       <c r="BG41" t="s">
         <v>99</v>
       </c>
-      <c r="BH41" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI41" t="s">
-        <v>165</v>
+      <c r="BH41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
       </c>
       <c r="BJ41" t="b">
         <v>1</v>
       </c>
       <c r="BK41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL41" t="n">
         <v>0</v>
       </c>
       <c r="BM41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN41" t="b">
         <v>0</v>
@@ -11110,10 +10717,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
         <v>91</v>
@@ -11201,10 +10808,10 @@
         <v>0</v>
       </c>
       <c r="AI42" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AJ42" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK42" t="b">
         <v>1</v>
@@ -11265,25 +10872,25 @@
       <c r="BE42"/>
       <c r="BF42"/>
       <c r="BG42" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH42" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI42" t="s">
-        <v>185</v>
+        <v>137</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0</v>
       </c>
       <c r="BJ42" t="b">
         <v>1</v>
       </c>
       <c r="BK42" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="BL42" t="n">
         <v>0</v>
       </c>
       <c r="BM42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN42" t="b">
         <v>0</v>
@@ -11361,10 +10968,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
         <v>91</v>
@@ -11373,7 +10980,7 @@
         <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G43" t="n">
         <v>70</v>
@@ -11428,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB43" t="b">
         <v>0</v>
@@ -11518,23 +11125,23 @@
       <c r="BG43" t="s">
         <v>99</v>
       </c>
-      <c r="BH43" t="s">
-        <v>186</v>
-      </c>
-      <c r="BI43" t="s">
-        <v>187</v>
+      <c r="BH43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0</v>
       </c>
       <c r="BJ43" t="b">
         <v>1</v>
       </c>
       <c r="BK43" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL43" t="n">
         <v>0</v>
       </c>
       <c r="BM43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN43" t="b">
         <v>0</v>
@@ -11606,10 +11213,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>91</v>
@@ -11618,7 +11225,7 @@
         <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G44" t="n">
         <v>17</v>
@@ -11633,19 +11240,19 @@
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" t="s">
         <v>106</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>107</v>
-      </c>
-      <c r="O44" t="s">
-        <v>108</v>
       </c>
       <c r="P44" t="s">
         <v>95</v>
@@ -11681,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB44" t="b">
         <v>0</v>
@@ -11708,7 +11315,7 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="b">
         <v>1</v>
@@ -11747,7 +11354,7 @@
       <c r="BE44"/>
       <c r="BF44"/>
       <c r="BG44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH44"/>
       <c r="BI44"/>
@@ -11755,13 +11362,13 @@
         <v>1</v>
       </c>
       <c r="BK44" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL44" t="n">
         <v>0</v>
       </c>
       <c r="BM44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN44" t="b">
         <v>1</v>
@@ -11833,10 +11440,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
         <v>91</v>
@@ -11845,7 +11452,7 @@
         <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G45" t="n">
         <v>20</v>
@@ -11860,19 +11467,19 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N45" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" t="s">
         <v>107</v>
-      </c>
-      <c r="O45" t="s">
-        <v>108</v>
       </c>
       <c r="P45" t="s">
         <v>95</v>
@@ -11932,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AI45" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AJ45" t="s">
         <v>98</v>
@@ -11998,23 +11605,23 @@
       <c r="BG45" t="s">
         <v>99</v>
       </c>
-      <c r="BH45" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI45" t="s">
-        <v>179</v>
+      <c r="BH45" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>3</v>
       </c>
       <c r="BJ45" t="b">
         <v>1</v>
       </c>
       <c r="BK45" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL45" t="n">
         <v>0</v>
       </c>
       <c r="BM45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN45" t="b">
         <v>0</v>
@@ -12086,10 +11693,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
         <v>91</v>
@@ -12180,7 +11787,7 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK46" t="b">
         <v>1</v>
@@ -12241,7 +11848,7 @@
       <c r="BE46"/>
       <c r="BF46"/>
       <c r="BG46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH46"/>
       <c r="BI46"/>
@@ -12249,13 +11856,13 @@
         <v>1</v>
       </c>
       <c r="BK46" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="BL46" t="n">
         <v>0</v>
       </c>
       <c r="BM46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN46" t="b">
         <v>0</v>
@@ -12336,13 +11943,13 @@
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
         <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
         <v>93</v>
@@ -12468,11 +12075,11 @@
       <c r="BG47" t="s">
         <v>99</v>
       </c>
-      <c r="BH47" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI47" t="s">
-        <v>191</v>
+      <c r="BH47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0</v>
       </c>
       <c r="BJ47" t="b">
         <v>0</v>
@@ -12545,7 +12152,7 @@
         <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
         <v>91</v>
@@ -12699,23 +12306,23 @@
       <c r="BG48" t="s">
         <v>99</v>
       </c>
-      <c r="BH48" t="s">
-        <v>175</v>
-      </c>
-      <c r="BI48" t="s">
-        <v>192</v>
+      <c r="BH48" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1</v>
       </c>
       <c r="BJ48" t="b">
         <v>1</v>
       </c>
       <c r="BK48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL48" t="n">
         <v>2</v>
       </c>
       <c r="BM48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN48" t="b">
         <v>0</v>
@@ -12786,7 +12393,7 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
         <v>91</v>
@@ -12940,11 +12547,11 @@
       <c r="BG49" t="s">
         <v>99</v>
       </c>
-      <c r="BH49" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI49" t="s">
-        <v>195</v>
+      <c r="BH49" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>2</v>
       </c>
       <c r="BJ49" t="b">
         <v>0</v>
@@ -13027,7 +12634,7 @@
         <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
         <v>91</v>
@@ -13181,23 +12788,23 @@
       <c r="BG50" t="s">
         <v>99</v>
       </c>
-      <c r="BH50" t="s">
-        <v>196</v>
-      </c>
-      <c r="BI50" t="s">
-        <v>197</v>
+      <c r="BH50" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1</v>
       </c>
       <c r="BJ50" t="b">
         <v>1</v>
       </c>
       <c r="BK50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL50" t="n">
         <v>1</v>
       </c>
       <c r="BM50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN50" t="b">
         <v>0</v>
@@ -13262,7 +12869,7 @@
         <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
         <v>91</v>
@@ -13394,23 +13001,23 @@
       <c r="BG51" t="s">
         <v>99</v>
       </c>
-      <c r="BH51" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI51" t="s">
-        <v>199</v>
+      <c r="BH51" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>3</v>
       </c>
       <c r="BJ51" t="b">
         <v>1</v>
       </c>
       <c r="BK51" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL51" t="n">
         <v>0</v>
       </c>
       <c r="BM51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN51" t="b">
         <v>0</v>
@@ -13475,7 +13082,7 @@
         <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
         <v>91</v>
@@ -13607,23 +13214,23 @@
       <c r="BG52" t="s">
         <v>99</v>
       </c>
-      <c r="BH52" t="s">
-        <v>200</v>
-      </c>
-      <c r="BI52" t="s">
-        <v>200</v>
+      <c r="BH52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>4</v>
       </c>
       <c r="BJ52" t="b">
         <v>1</v>
       </c>
       <c r="BK52" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL52" t="n">
         <v>0</v>
       </c>
       <c r="BM52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN52" t="b">
         <v>0</v>
@@ -13688,7 +13295,7 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
         <v>91</v>
@@ -13842,23 +13449,23 @@
       <c r="BG53" t="s">
         <v>99</v>
       </c>
-      <c r="BH53" t="s">
-        <v>201</v>
-      </c>
-      <c r="BI53" t="s">
-        <v>183</v>
+      <c r="BH53" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>4</v>
       </c>
       <c r="BJ53" t="b">
         <v>1</v>
       </c>
       <c r="BK53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL53" t="n">
         <v>1</v>
       </c>
       <c r="BM53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN53" t="b">
         <v>0</v>
@@ -13939,7 +13546,7 @@
         <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
         <v>91</v>
@@ -14093,23 +13700,23 @@
       <c r="BG54" t="s">
         <v>99</v>
       </c>
-      <c r="BH54" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI54" t="s">
-        <v>203</v>
+      <c r="BH54" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>2</v>
       </c>
       <c r="BJ54" t="b">
         <v>1</v>
       </c>
       <c r="BK54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL54" t="n">
         <v>0</v>
       </c>
       <c r="BM54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN54" t="b">
         <v>0</v>
@@ -14183,13 +13790,13 @@
         <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
         <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
@@ -14204,13 +13811,13 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N55" t="s">
         <v>94</v>
@@ -14250,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB55" t="b">
         <v>0</v>
@@ -14277,7 +13884,7 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK55" t="b">
         <v>1</v>
@@ -14316,7 +13923,7 @@
       <c r="BE55"/>
       <c r="BF55"/>
       <c r="BG55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH55"/>
       <c r="BI55"/>
@@ -14324,13 +13931,13 @@
         <v>1</v>
       </c>
       <c r="BK55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL55" t="n">
         <v>1</v>
       </c>
       <c r="BM55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN55" t="b">
         <v>0</v>
@@ -14411,7 +14018,7 @@
         <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
         <v>91</v>
@@ -14435,19 +14042,19 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M56" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" t="s">
         <v>106</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>107</v>
-      </c>
-      <c r="O56" t="s">
-        <v>108</v>
       </c>
       <c r="P56" t="s">
         <v>95</v>
@@ -14573,23 +14180,23 @@
       <c r="BG56" t="s">
         <v>99</v>
       </c>
-      <c r="BH56" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI56" t="s">
-        <v>205</v>
+      <c r="BH56" t="n">
+        <v>51</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>7</v>
       </c>
       <c r="BJ56" t="b">
         <v>1</v>
       </c>
       <c r="BK56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL56" t="n">
         <v>1</v>
       </c>
       <c r="BM56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN56" t="b">
         <v>0</v>
@@ -14660,16 +14267,16 @@
         <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
         <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -14684,19 +14291,19 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M57" t="s">
+        <v>105</v>
+      </c>
+      <c r="N57" t="s">
         <v>106</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>107</v>
-      </c>
-      <c r="O57" t="s">
-        <v>108</v>
       </c>
       <c r="P57" t="s">
         <v>95</v>
@@ -14800,23 +14407,23 @@
       <c r="BG57" t="s">
         <v>99</v>
       </c>
-      <c r="BH57" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI57" t="s">
-        <v>206</v>
+      <c r="BH57" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>2</v>
       </c>
       <c r="BJ57" t="b">
         <v>1</v>
       </c>
       <c r="BK57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL57" t="n">
         <v>1</v>
       </c>
       <c r="BM57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN57" t="b">
         <v>0</v>
@@ -14897,7 +14504,7 @@
         <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
@@ -14921,19 +14528,19 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M58" t="s">
+        <v>105</v>
+      </c>
+      <c r="N58" t="s">
         <v>106</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>107</v>
-      </c>
-      <c r="O58" t="s">
-        <v>108</v>
       </c>
       <c r="P58" t="s">
         <v>95</v>
@@ -15059,23 +14666,23 @@
       <c r="BG58" t="s">
         <v>99</v>
       </c>
-      <c r="BH58" t="s">
-        <v>207</v>
-      </c>
-      <c r="BI58" t="s">
-        <v>208</v>
+      <c r="BH58" t="n">
+        <v>52</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>8</v>
       </c>
       <c r="BJ58" t="b">
         <v>1</v>
       </c>
       <c r="BK58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL58" t="n">
         <v>3.5</v>
       </c>
       <c r="BM58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN58" t="b">
         <v>0</v>
@@ -15146,16 +14753,16 @@
         <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
         <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G59" t="n">
         <v>10</v>
@@ -15300,23 +14907,23 @@
       <c r="BG59" t="s">
         <v>99</v>
       </c>
-      <c r="BH59" t="s">
-        <v>209</v>
-      </c>
-      <c r="BI59" t="s">
-        <v>210</v>
+      <c r="BH59" t="n">
+        <v>36</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>4</v>
       </c>
       <c r="BJ59" t="b">
         <v>1</v>
       </c>
       <c r="BK59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL59" t="n">
         <v>2.5</v>
       </c>
       <c r="BM59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN59" t="b">
         <v>0</v>
@@ -15387,13 +14994,13 @@
         <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
         <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
         <v>93</v>
@@ -15539,23 +15146,23 @@
       <c r="BG60" t="s">
         <v>99</v>
       </c>
-      <c r="BH60" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI60" t="s">
-        <v>212</v>
+      <c r="BH60" t="n">
+        <v>93</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>4</v>
       </c>
       <c r="BJ60" t="b">
         <v>1</v>
       </c>
       <c r="BK60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL60" t="n">
         <v>3</v>
       </c>
       <c r="BM60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN60" t="b">
         <v>0</v>
@@ -15626,7 +15233,7 @@
         <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
         <v>91</v>
@@ -15650,19 +15257,19 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M61" t="s">
+        <v>105</v>
+      </c>
+      <c r="N61" t="s">
         <v>106</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>107</v>
-      </c>
-      <c r="O61" t="s">
-        <v>108</v>
       </c>
       <c r="P61" t="s">
         <v>95</v>
@@ -15788,23 +15395,23 @@
       <c r="BG61" t="s">
         <v>99</v>
       </c>
-      <c r="BH61" t="s">
-        <v>213</v>
-      </c>
-      <c r="BI61" t="s">
-        <v>214</v>
+      <c r="BH61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>5</v>
       </c>
       <c r="BJ61" t="b">
         <v>1</v>
       </c>
       <c r="BK61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL61" t="n">
         <v>1</v>
       </c>
       <c r="BM61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN61" t="b">
         <v>0</v>
@@ -15879,7 +15486,7 @@
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
         <v>91</v>
@@ -15888,7 +15495,7 @@
         <v>92</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G62" t="n">
         <v>30</v>
@@ -15903,19 +15510,19 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M62" t="s">
+        <v>105</v>
+      </c>
+      <c r="N62" t="s">
         <v>106</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>107</v>
-      </c>
-      <c r="O62" t="s">
-        <v>108</v>
       </c>
       <c r="P62" t="s">
         <v>95</v>
@@ -15951,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB62" t="b">
         <v>0</v>
@@ -16019,23 +15626,23 @@
       <c r="BG62" t="s">
         <v>99</v>
       </c>
-      <c r="BH62" t="s">
-        <v>215</v>
-      </c>
-      <c r="BI62" t="s">
-        <v>216</v>
+      <c r="BH62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>3</v>
       </c>
       <c r="BJ62" t="b">
         <v>1</v>
       </c>
       <c r="BK62" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL62" t="n">
         <v>0</v>
       </c>
       <c r="BM62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN62"/>
       <c r="BO62"/>
@@ -16110,7 +15717,7 @@
         <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
         <v>91</v>
@@ -16264,23 +15871,23 @@
       <c r="BG63" t="s">
         <v>99</v>
       </c>
-      <c r="BH63" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI63" t="s">
-        <v>110</v>
+      <c r="BH63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>4</v>
       </c>
       <c r="BJ63" t="b">
         <v>1</v>
       </c>
       <c r="BK63" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL63" t="n">
         <v>0</v>
       </c>
       <c r="BM63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN63" t="b">
         <v>0</v>
@@ -16351,16 +15958,16 @@
         <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>91</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G64" t="n">
         <v>10</v>
@@ -16375,19 +15982,19 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N64" t="s">
+        <v>106</v>
+      </c>
+      <c r="O64" t="s">
         <v>107</v>
-      </c>
-      <c r="O64" t="s">
-        <v>108</v>
       </c>
       <c r="P64" t="s">
         <v>95</v>
@@ -16511,25 +16118,25 @@
       </c>
       <c r="BF64"/>
       <c r="BG64" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH64" t="s">
-        <v>139</v>
-      </c>
-      <c r="BI64" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>2</v>
       </c>
       <c r="BJ64" t="b">
         <v>1</v>
       </c>
       <c r="BK64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL64" t="n">
         <v>3</v>
       </c>
       <c r="BM64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN64" t="b">
         <v>0</v>
@@ -16610,16 +16217,16 @@
         <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
         <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G65" t="n">
         <v>27</v>
@@ -16634,16 +16241,16 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M65" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="N65" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O65"/>
       <c r="P65" t="s">
@@ -16680,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="AA65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB65" t="b">
         <v>0</v>
@@ -16746,13 +16353,13 @@
       <c r="BE65"/>
       <c r="BF65"/>
       <c r="BG65" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH65" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI65" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>4</v>
       </c>
       <c r="BJ65" t="b">
         <v>0</v>
@@ -16841,16 +16448,16 @@
         <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
         <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -16973,23 +16580,23 @@
       <c r="BG66" t="s">
         <v>99</v>
       </c>
-      <c r="BH66" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI66" t="s">
-        <v>219</v>
+      <c r="BH66" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>4</v>
       </c>
       <c r="BJ66" t="b">
         <v>1</v>
       </c>
       <c r="BK66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL66" t="n">
         <v>1</v>
       </c>
       <c r="BM66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN66" t="b">
         <v>0</v>
@@ -17056,7 +16663,7 @@
         <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
         <v>91</v>
@@ -17080,19 +16687,19 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
+        <v>103</v>
+      </c>
+      <c r="L67" t="s">
         <v>104</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>105</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>106</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>107</v>
-      </c>
-      <c r="O67" t="s">
-        <v>108</v>
       </c>
       <c r="P67" t="s">
         <v>95</v>
@@ -17128,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="AA67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB67" t="b">
         <v>0</v>
@@ -17155,7 +16762,7 @@
         <v>97</v>
       </c>
       <c r="AJ67" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK67" t="b">
         <v>1</v>
@@ -17194,7 +16801,7 @@
       <c r="BE67"/>
       <c r="BF67"/>
       <c r="BG67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH67"/>
       <c r="BI67"/>
@@ -17285,16 +16892,16 @@
         <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
         <v>91</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -17437,23 +17044,23 @@
       <c r="BG68" t="s">
         <v>99</v>
       </c>
-      <c r="BH68" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI68" t="s">
-        <v>110</v>
+      <c r="BH68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4</v>
       </c>
       <c r="BJ68" t="b">
         <v>1</v>
       </c>
       <c r="BK68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL68" t="n">
         <v>3.5</v>
       </c>
       <c r="BM68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN68" t="b">
         <v>0</v>
@@ -17524,7 +17131,7 @@
         <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
         <v>91</v>
@@ -17678,23 +17285,23 @@
       <c r="BG69" t="s">
         <v>99</v>
       </c>
-      <c r="BH69" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI69" t="s">
-        <v>221</v>
+      <c r="BH69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>3</v>
       </c>
       <c r="BJ69" t="b">
         <v>1</v>
       </c>
       <c r="BK69" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL69" t="n">
         <v>0</v>
       </c>
       <c r="BM69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BN69" t="b">
         <v>0</v>
@@ -17778,13 +17385,13 @@
         <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
         <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -17839,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB70" t="b">
         <v>0</v>
@@ -17929,11 +17536,11 @@
       <c r="BG70" t="s">
         <v>99</v>
       </c>
-      <c r="BH70" t="s">
-        <v>222</v>
-      </c>
-      <c r="BI70" t="s">
-        <v>223</v>
+      <c r="BH70" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2</v>
       </c>
       <c r="BJ70" t="b">
         <v>0</v>
@@ -18012,7 +17619,7 @@
         <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
         <v>91</v>
@@ -18036,16 +17643,16 @@
         <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M71" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N71" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O71"/>
       <c r="P71" t="s">
@@ -18082,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB71" t="b">
         <v>0</v>
@@ -18106,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="AI71" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AJ71" t="s">
         <v>98</v>
@@ -18172,11 +17779,11 @@
       <c r="BG71" t="s">
         <v>99</v>
       </c>
-      <c r="BH71" t="s">
-        <v>224</v>
-      </c>
-      <c r="BI71" t="s">
-        <v>225</v>
+      <c r="BH71" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>4</v>
       </c>
       <c r="BJ71" t="b">
         <v>0</v>
@@ -18265,7 +17872,7 @@
         <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
         <v>91</v>
@@ -18329,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB72" t="b">
         <v>0</v>
@@ -18397,11 +18004,11 @@
       <c r="BG72" t="s">
         <v>99</v>
       </c>
-      <c r="BH72" t="s">
-        <v>226</v>
-      </c>
-      <c r="BI72" t="s">
-        <v>227</v>
+      <c r="BH72" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>4</v>
       </c>
       <c r="BJ72" t="b">
         <v>0</v>
@@ -18480,7 +18087,7 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
         <v>91</v>
@@ -18544,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB73" t="b">
         <v>0</v>
@@ -18568,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="AI73" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="AJ73" t="s">
         <v>98</v>
@@ -18634,23 +18241,23 @@
       <c r="BG73" t="s">
         <v>99</v>
       </c>
-      <c r="BH73" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI73" t="s">
-        <v>139</v>
+      <c r="BH73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
       </c>
       <c r="BJ73" t="b">
         <v>1</v>
       </c>
       <c r="BK73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL73" t="n">
         <v>3.5</v>
       </c>
       <c r="BM73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN73" t="b">
         <v>0</v>
@@ -18734,13 +18341,13 @@
         <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
         <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G74" t="n">
         <v>28</v>
@@ -18755,16 +18362,16 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M74" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="N74" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O74"/>
       <c r="P74" t="s">
@@ -18801,7 +18408,7 @@
         <v>0</v>
       </c>
       <c r="AA74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB74" t="b">
         <v>0</v>
@@ -18828,7 +18435,7 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK74" t="b">
         <v>1</v>
@@ -18867,7 +18474,7 @@
       <c r="BE74"/>
       <c r="BF74"/>
       <c r="BG74" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH74"/>
       <c r="BI74"/>
@@ -18875,13 +18482,13 @@
         <v>1</v>
       </c>
       <c r="BK74" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL74" t="n">
         <v>0</v>
       </c>
       <c r="BM74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN74" t="b">
         <v>0</v>
@@ -18962,7 +18569,7 @@
         <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F75" t="s">
         <v>93</v>
@@ -18980,16 +18587,16 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M75" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="N75" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O75"/>
       <c r="P75" t="s">
@@ -19094,23 +18701,23 @@
       <c r="BG75" t="s">
         <v>99</v>
       </c>
-      <c r="BH75" t="s">
-        <v>229</v>
-      </c>
-      <c r="BI75" t="s">
-        <v>230</v>
+      <c r="BH75" t="n">
+        <v>45</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>9</v>
       </c>
       <c r="BJ75" t="b">
         <v>1</v>
       </c>
       <c r="BK75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL75" t="n">
         <v>3</v>
       </c>
       <c r="BM75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN75" t="b">
         <v>0</v>
@@ -19188,10 +18795,10 @@
         <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F76" t="s">
         <v>93</v>
@@ -19209,19 +18816,19 @@
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L76" t="s">
+        <v>104</v>
+      </c>
+      <c r="M76" t="s">
         <v>105</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>106</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>107</v>
-      </c>
-      <c r="O76" t="s">
-        <v>108</v>
       </c>
       <c r="P76" t="s">
         <v>95</v>
@@ -19257,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="AA76" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB76" t="b">
         <v>0</v>
@@ -19347,23 +18954,23 @@
       <c r="BG76" t="s">
         <v>99</v>
       </c>
-      <c r="BH76" t="s">
-        <v>231</v>
-      </c>
-      <c r="BI76" t="s">
-        <v>232</v>
+      <c r="BH76" t="n">
+        <v>48</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>6</v>
       </c>
       <c r="BJ76" t="b">
         <v>1</v>
       </c>
       <c r="BK76" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL76" t="n">
         <v>0</v>
       </c>
       <c r="BM76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN76" t="b">
         <v>0</v>
@@ -19428,7 +19035,7 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
         <v>91</v>
@@ -19452,19 +19059,19 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M77" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="N77" t="s">
+        <v>106</v>
+      </c>
+      <c r="O77" t="s">
         <v>107</v>
-      </c>
-      <c r="O77" t="s">
-        <v>108</v>
       </c>
       <c r="P77" t="s">
         <v>95</v>
@@ -19500,7 +19107,7 @@
         <v>0</v>
       </c>
       <c r="AA77" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB77" t="b">
         <v>0</v>
@@ -19568,23 +19175,23 @@
       <c r="BG77" t="s">
         <v>99</v>
       </c>
-      <c r="BH77" t="s">
-        <v>233</v>
-      </c>
-      <c r="BI77" t="s">
-        <v>234</v>
+      <c r="BH77" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>5</v>
       </c>
       <c r="BJ77" t="b">
         <v>1</v>
       </c>
       <c r="BK77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL77" t="n">
         <v>3</v>
       </c>
       <c r="BM77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN77" t="b">
         <v>0</v>
@@ -19665,7 +19272,7 @@
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>91</v>
@@ -19729,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="AA78" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB78" t="b">
         <v>0</v>
@@ -19797,23 +19404,23 @@
       <c r="BG78" t="s">
         <v>99</v>
       </c>
-      <c r="BH78" t="s">
-        <v>235</v>
-      </c>
-      <c r="BI78" t="s">
-        <v>163</v>
+      <c r="BH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1</v>
       </c>
       <c r="BJ78" t="b">
         <v>1</v>
       </c>
       <c r="BK78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL78" t="n">
         <v>2</v>
       </c>
       <c r="BM78" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN78" t="b">
         <v>0</v>
@@ -19884,7 +19491,7 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="D79" t="s">
         <v>91</v>
@@ -19893,7 +19500,7 @@
         <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -19948,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB79" t="b">
         <v>0</v>
@@ -20016,23 +19623,23 @@
       <c r="BG79" t="s">
         <v>99</v>
       </c>
-      <c r="BH79" t="s">
-        <v>236</v>
-      </c>
-      <c r="BI79" t="s">
-        <v>237</v>
+      <c r="BH79" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>4</v>
       </c>
       <c r="BJ79" t="b">
         <v>1</v>
       </c>
       <c r="BK79" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL79" t="n">
         <v>3</v>
       </c>
       <c r="BM79" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN79" t="b">
         <v>0</v>
@@ -20103,10 +19710,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E80" t="s">
         <v>92</v>
@@ -20167,7 +19774,7 @@
         <v>1</v>
       </c>
       <c r="AA80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB80" t="b">
         <v>0</v>
@@ -20257,11 +19864,11 @@
       <c r="BG80" t="s">
         <v>99</v>
       </c>
-      <c r="BH80" t="s">
-        <v>238</v>
-      </c>
-      <c r="BI80" t="s">
-        <v>239</v>
+      <c r="BH80" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>4</v>
       </c>
       <c r="BJ80" t="b">
         <v>0</v>
@@ -20334,7 +19941,7 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>91</v>
@@ -20358,16 +19965,16 @@
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M81" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="N81" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O81"/>
       <c r="P81" t="s">
@@ -20472,23 +20079,23 @@
       <c r="BG81" t="s">
         <v>99</v>
       </c>
-      <c r="BH81" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI81" t="s">
-        <v>110</v>
+      <c r="BH81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>4</v>
       </c>
       <c r="BJ81" t="b">
         <v>1</v>
       </c>
       <c r="BK81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL81" t="n">
         <v>2</v>
       </c>
       <c r="BM81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN81" t="b">
         <v>0</v>
@@ -20559,7 +20166,7 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
         <v>91</v>
@@ -20568,7 +20175,7 @@
         <v>92</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -20583,19 +20190,19 @@
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L82" t="s">
+        <v>104</v>
+      </c>
+      <c r="M82" t="s">
         <v>105</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>106</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>107</v>
-      </c>
-      <c r="O82" t="s">
-        <v>108</v>
       </c>
       <c r="P82" t="s">
         <v>95</v>
@@ -20699,23 +20306,23 @@
       <c r="BG82" t="s">
         <v>99</v>
       </c>
-      <c r="BH82" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI82" t="s">
-        <v>241</v>
+      <c r="BH82" t="n">
+        <v>31</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>4</v>
       </c>
       <c r="BJ82" t="b">
         <v>1</v>
       </c>
       <c r="BK82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL82" t="n">
         <v>4</v>
       </c>
       <c r="BM82" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN82" t="b">
         <v>0</v>
@@ -20810,16 +20417,16 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M83" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="N83" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O83"/>
       <c r="P83" t="s">
@@ -20924,23 +20531,23 @@
       <c r="BG83" t="s">
         <v>99</v>
       </c>
-      <c r="BH83" t="s">
-        <v>242</v>
-      </c>
-      <c r="BI83" t="s">
-        <v>243</v>
+      <c r="BH83" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>2</v>
       </c>
       <c r="BJ83" t="b">
         <v>1</v>
       </c>
       <c r="BK83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL83" t="n">
         <v>0</v>
       </c>
       <c r="BM83" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN83" t="b">
         <v>0</v>
@@ -21011,7 +20618,7 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
         <v>91</v>
@@ -21143,23 +20750,23 @@
       <c r="BG84" t="s">
         <v>99</v>
       </c>
-      <c r="BH84" t="s">
-        <v>244</v>
-      </c>
-      <c r="BI84" t="s">
-        <v>245</v>
+      <c r="BH84" t="n">
+        <v>29</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>9</v>
       </c>
       <c r="BJ84" t="b">
         <v>1</v>
       </c>
       <c r="BK84" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL84" t="n">
         <v>2</v>
       </c>
       <c r="BM84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN84" t="b">
         <v>0</v>
@@ -21230,7 +20837,7 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D85" t="s">
         <v>91</v>
@@ -21239,7 +20846,7 @@
         <v>92</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -21294,7 +20901,7 @@
         <v>1</v>
       </c>
       <c r="AA85" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB85" t="b">
         <v>0</v>
@@ -21362,23 +20969,23 @@
       <c r="BG85" t="s">
         <v>99</v>
       </c>
-      <c r="BH85" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI85" t="s">
-        <v>139</v>
+      <c r="BH85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>2</v>
       </c>
       <c r="BJ85" t="b">
         <v>1</v>
       </c>
       <c r="BK85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL85" t="n">
         <v>2</v>
       </c>
       <c r="BM85" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN85" t="b">
         <v>0</v>
@@ -21449,7 +21056,7 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
@@ -21458,7 +21065,7 @@
         <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G86" t="n">
         <v>30</v>
@@ -21513,7 +21120,7 @@
         <v>0</v>
       </c>
       <c r="AA86" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB86" t="b">
         <v>0</v>
@@ -21581,23 +21188,23 @@
       <c r="BG86" t="s">
         <v>99</v>
       </c>
-      <c r="BH86" t="s">
-        <v>246</v>
-      </c>
-      <c r="BI86" t="s">
-        <v>247</v>
+      <c r="BH86" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>4</v>
       </c>
       <c r="BJ86" t="b">
         <v>1</v>
       </c>
       <c r="BK86" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL86" t="n">
         <v>2</v>
       </c>
       <c r="BM86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN86" t="b">
         <v>0</v>
@@ -21668,7 +21275,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
         <v>91</v>
@@ -21692,16 +21299,16 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M87" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O87" t="s">
         <v>95</v>
@@ -21740,7 +21347,7 @@
         <v>1</v>
       </c>
       <c r="AA87" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB87" t="b">
         <v>0</v>
@@ -21808,23 +21415,23 @@
       <c r="BG87" t="s">
         <v>99</v>
       </c>
-      <c r="BH87" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI87" t="s">
-        <v>249</v>
+      <c r="BH87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>4</v>
       </c>
       <c r="BJ87" t="b">
         <v>1</v>
       </c>
       <c r="BK87" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL87" t="n">
         <v>0</v>
       </c>
       <c r="BM87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN87" t="b">
         <v>0</v>
@@ -21892,10 +21499,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
@@ -21904,7 +21511,7 @@
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G88" t="n">
         <v>20</v>
@@ -21919,16 +21526,16 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M88" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N88" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O88"/>
       <c r="P88" t="s">
@@ -21965,7 +21572,7 @@
         <v>0</v>
       </c>
       <c r="AA88" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB88" t="b">
         <v>0</v>
@@ -21989,10 +21596,10 @@
         <v>0</v>
       </c>
       <c r="AI88" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AJ88" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK88" t="b">
         <v>1</v>
@@ -22031,7 +21638,7 @@
       <c r="BE88"/>
       <c r="BF88"/>
       <c r="BG88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH88"/>
       <c r="BI88"/>
@@ -22119,10 +21726,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
         <v>91</v>
@@ -22186,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="AA89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB89" t="b">
         <v>0</v>
@@ -22213,7 +21820,7 @@
         <v>97</v>
       </c>
       <c r="AJ89" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK89" t="b">
         <v>1</v>
@@ -22254,23 +21861,23 @@
       <c r="BG89" t="s">
         <v>99</v>
       </c>
-      <c r="BH89" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI89" t="s">
-        <v>203</v>
+      <c r="BH89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>2</v>
       </c>
       <c r="BJ89" t="b">
         <v>1</v>
       </c>
       <c r="BK89" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL89" t="n">
         <v>0</v>
       </c>
       <c r="BM89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN89" t="b">
         <v>0</v>
@@ -22342,10 +21949,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
@@ -22369,16 +21976,16 @@
         <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M90" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N90" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O90"/>
       <c r="P90" t="s">
@@ -22413,7 +22020,7 @@
       </c>
       <c r="Z90"/>
       <c r="AA90" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB90" t="b">
         <v>0</v>
@@ -22440,7 +22047,7 @@
         <v>97</v>
       </c>
       <c r="AJ90" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK90" t="b">
         <v>1</v>
@@ -22499,25 +22106,25 @@
       <c r="BE90"/>
       <c r="BF90"/>
       <c r="BG90" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH90" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI90" t="s">
-        <v>250</v>
+        <v>137</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0</v>
       </c>
       <c r="BJ90" t="b">
         <v>1</v>
       </c>
       <c r="BK90" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL90" t="n">
         <v>0</v>
       </c>
       <c r="BM90" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN90" t="b">
         <v>1</v>
@@ -22595,10 +22202,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
         <v>91</v>
@@ -22607,7 +22214,7 @@
         <v>92</v>
       </c>
       <c r="F91" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G91" t="n">
         <v>30</v>
@@ -22662,7 +22269,7 @@
         <v>0</v>
       </c>
       <c r="AA91" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB91" t="b">
         <v>0</v>
@@ -22752,23 +22359,23 @@
       <c r="BG91" t="s">
         <v>99</v>
       </c>
-      <c r="BH91" t="s">
-        <v>251</v>
-      </c>
-      <c r="BI91" t="s">
-        <v>252</v>
+      <c r="BH91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1</v>
       </c>
       <c r="BJ91" t="b">
         <v>1</v>
       </c>
       <c r="BK91" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL91" t="n">
         <v>0</v>
       </c>
       <c r="BM91" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN91" t="b">
         <v>0</v>
@@ -22846,10 +22453,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
         <v>91</v>
@@ -22913,7 +22520,7 @@
         <v>0</v>
       </c>
       <c r="AA92" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB92" t="b">
         <v>0</v>
@@ -23003,23 +22610,23 @@
       <c r="BG92" t="s">
         <v>99</v>
       </c>
-      <c r="BH92" t="s">
-        <v>186</v>
-      </c>
-      <c r="BI92" t="s">
-        <v>253</v>
+      <c r="BH92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1</v>
       </c>
       <c r="BJ92" t="b">
         <v>1</v>
       </c>
       <c r="BK92" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL92" t="n">
         <v>2</v>
       </c>
       <c r="BM92" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN92"/>
       <c r="BO92"/>
@@ -23085,19 +22692,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
         <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G93" t="n">
         <v>67</v>
@@ -23112,16 +22719,16 @@
         <v>2</v>
       </c>
       <c r="K93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N93" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O93"/>
       <c r="P93" t="s">
@@ -23158,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="AA93" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB93" t="b">
         <v>0</v>
@@ -23185,7 +22792,7 @@
         <v>97</v>
       </c>
       <c r="AJ93" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AK93" t="b">
         <v>1</v>
@@ -23246,25 +22853,25 @@
       <c r="BE93"/>
       <c r="BF93"/>
       <c r="BG93" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH93" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI93" t="s">
-        <v>254</v>
+        <v>137</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0</v>
       </c>
       <c r="BJ93" t="b">
         <v>1</v>
       </c>
       <c r="BK93" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL93" t="n">
         <v>0</v>
       </c>
       <c r="BM93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN93" t="b">
         <v>1</v>
@@ -23342,19 +22949,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C94" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
       </c>
       <c r="F94" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G94" t="n">
         <v>66</v>
@@ -23369,19 +22976,19 @@
         <v>2</v>
       </c>
       <c r="K94" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M94" t="s">
+        <v>105</v>
+      </c>
+      <c r="N94" t="s">
         <v>106</v>
       </c>
-      <c r="N94" t="s">
-        <v>107</v>
-      </c>
       <c r="O94" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="P94" t="s">
         <v>95</v>
@@ -23417,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB94" t="b">
         <v>0</v>
@@ -23444,7 +23051,7 @@
         <v>97</v>
       </c>
       <c r="AJ94" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK94" t="b">
         <v>1</v>
@@ -23485,23 +23092,23 @@
       <c r="BG94" t="s">
         <v>99</v>
       </c>
-      <c r="BH94" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI94" t="s">
-        <v>256</v>
+      <c r="BH94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>2</v>
       </c>
       <c r="BJ94" t="b">
         <v>1</v>
       </c>
       <c r="BK94" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL94" t="n">
         <v>0</v>
       </c>
       <c r="BM94" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN94" t="b">
         <v>0</v>
@@ -23573,19 +23180,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
         <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
         <v>92</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G95" t="n">
         <v>28</v>
@@ -23667,7 +23274,7 @@
         <v>97</v>
       </c>
       <c r="AJ95" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK95" t="b">
         <v>1</v>
@@ -23708,23 +23315,23 @@
       <c r="BG95" t="s">
         <v>99</v>
       </c>
-      <c r="BH95" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI95" t="s">
-        <v>258</v>
+      <c r="BH95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0</v>
       </c>
       <c r="BJ95" t="b">
         <v>1</v>
       </c>
       <c r="BK95" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL95" t="n">
         <v>0</v>
       </c>
       <c r="BM95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN95" t="b">
         <v>0</v>
@@ -23796,10 +23403,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
         <v>91</v>
@@ -23823,19 +23430,19 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L96" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M96" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="N96" t="s">
+        <v>106</v>
+      </c>
+      <c r="O96" t="s">
         <v>107</v>
-      </c>
-      <c r="O96" t="s">
-        <v>108</v>
       </c>
       <c r="P96" t="s">
         <v>95</v>
@@ -23871,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="AA96" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB96" t="b">
         <v>0</v>
@@ -23898,7 +23505,7 @@
         <v>97</v>
       </c>
       <c r="AJ96" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK96" t="b">
         <v>1</v>
@@ -23939,23 +23546,23 @@
       <c r="BG96" t="s">
         <v>99</v>
       </c>
-      <c r="BH96" t="s">
-        <v>233</v>
-      </c>
-      <c r="BI96" t="s">
-        <v>233</v>
+      <c r="BH96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>11</v>
       </c>
       <c r="BJ96" t="b">
         <v>1</v>
       </c>
       <c r="BK96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL96" t="n">
         <v>0</v>
       </c>
       <c r="BM96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN96" t="b">
         <v>0</v>
@@ -24033,19 +23640,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E97" t="s">
         <v>92</v>
       </c>
       <c r="F97" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G97" t="n">
         <v>12</v>
@@ -24060,16 +23667,16 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L97" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M97" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="N97" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O97"/>
       <c r="P97" t="s">
@@ -24106,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="AA97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB97" t="b">
         <v>0</v>
@@ -24196,23 +23803,23 @@
       <c r="BG97" t="s">
         <v>99</v>
       </c>
-      <c r="BH97" t="s">
-        <v>186</v>
-      </c>
-      <c r="BI97" t="s">
-        <v>164</v>
+      <c r="BH97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>0</v>
       </c>
       <c r="BJ97" t="b">
         <v>1</v>
       </c>
       <c r="BK97" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL97" t="n">
         <v>1</v>
       </c>
       <c r="BM97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BN97" t="b">
         <v>0</v>
@@ -24290,10 +23897,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
         <v>91</v>
@@ -24302,7 +23909,7 @@
         <v>92</v>
       </c>
       <c r="F98" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G98" t="n">
         <v>73</v>
@@ -24324,7 +23931,7 @@
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q98" t="b">
         <v>0</v>
@@ -24365,10 +23972,10 @@
       <c r="AG98"/>
       <c r="AH98"/>
       <c r="AI98" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="AJ98" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK98" t="b">
         <v>1</v>
@@ -24431,23 +24038,23 @@
       <c r="BG98" t="s">
         <v>99</v>
       </c>
-      <c r="BH98" t="s">
-        <v>260</v>
-      </c>
-      <c r="BI98" t="s">
-        <v>261</v>
+      <c r="BH98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>0</v>
       </c>
       <c r="BJ98" t="b">
         <v>1</v>
       </c>
       <c r="BK98" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL98" t="n">
         <v>0</v>
       </c>
       <c r="BM98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN98" t="b">
         <v>0</v>
@@ -24525,10 +24132,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
         <v>91</v>
@@ -24592,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="AA99" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB99" t="b">
         <v>0</v>
@@ -24619,7 +24226,7 @@
         <v>97</v>
       </c>
       <c r="AJ99" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK99" t="b">
         <v>1</v>
@@ -24658,7 +24265,7 @@
       <c r="BE99"/>
       <c r="BF99"/>
       <c r="BG99" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH99"/>
       <c r="BI99"/>
@@ -24740,10 +24347,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
@@ -24752,7 +24359,7 @@
         <v>92</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G100" t="n">
         <v>30</v>
@@ -24767,16 +24374,16 @@
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L100" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M100" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O100" t="s">
         <v>95</v>
@@ -24815,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="AA100" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB100" t="b">
         <v>0</v>
@@ -24842,7 +24449,7 @@
         <v>97</v>
       </c>
       <c r="AJ100" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK100" t="b">
         <v>1</v>
@@ -24903,7 +24510,7 @@
       <c r="BE100"/>
       <c r="BF100"/>
       <c r="BG100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH100"/>
       <c r="BI100"/>
@@ -24911,13 +24518,13 @@
         <v>1</v>
       </c>
       <c r="BK100" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL100" t="n">
         <v>0</v>
       </c>
       <c r="BM100" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN100" t="b">
         <v>1</v>
@@ -24995,19 +24602,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E101" t="s">
         <v>92</v>
       </c>
       <c r="F101" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G101" t="n">
         <v>73</v>
@@ -25029,7 +24636,7 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q101" t="b">
         <v>0</v>
@@ -25070,10 +24677,10 @@
       <c r="AG101"/>
       <c r="AH101"/>
       <c r="AI101" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AJ101" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK101" t="b">
         <v>1</v>
@@ -25112,7 +24719,7 @@
       <c r="BE101"/>
       <c r="BF101"/>
       <c r="BG101" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH101"/>
       <c r="BI101"/>
@@ -25120,13 +24727,13 @@
         <v>1</v>
       </c>
       <c r="BK101" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL101" t="n">
         <v>0</v>
       </c>
       <c r="BM101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN101" t="b">
         <v>0</v>
@@ -25204,10 +24811,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
         <v>91</v>
@@ -25238,7 +24845,7 @@
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Q102" t="b">
         <v>0</v>
@@ -25271,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="AA102" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB102" t="b">
         <v>0</v>
@@ -25295,10 +24902,10 @@
         <v>0</v>
       </c>
       <c r="AI102" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="AJ102" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK102" t="b">
         <v>1</v>
@@ -25339,23 +24946,23 @@
       <c r="BG102" t="s">
         <v>99</v>
       </c>
-      <c r="BH102" t="s">
-        <v>262</v>
-      </c>
-      <c r="BI102" t="s">
-        <v>263</v>
+      <c r="BH102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0</v>
       </c>
       <c r="BJ102" t="b">
         <v>1</v>
       </c>
       <c r="BK102" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL102" t="n">
         <v>2</v>
       </c>
       <c r="BM102" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN102" t="b">
         <v>0</v>
@@ -25433,10 +25040,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
         <v>91</v>
@@ -25500,7 +25107,7 @@
         <v>0</v>
       </c>
       <c r="AA103" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB103" t="b">
         <v>0</v>
@@ -25527,7 +25134,7 @@
         <v>97</v>
       </c>
       <c r="AJ103" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK103" t="b">
         <v>1</v>
@@ -25588,7 +25195,7 @@
       <c r="BE103"/>
       <c r="BF103"/>
       <c r="BG103" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH103"/>
       <c r="BI103"/>
@@ -25596,13 +25203,13 @@
         <v>1</v>
       </c>
       <c r="BK103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL103" t="n">
         <v>0</v>
       </c>
       <c r="BM103" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN103" t="b">
         <v>0</v>
@@ -25680,7 +25287,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
         <v>90</v>
@@ -25707,16 +25314,16 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L104" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M104" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="N104" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O104"/>
       <c r="P104" t="s">
@@ -25753,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="AA104" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB104" t="b">
         <v>0</v>
@@ -25780,7 +25387,7 @@
         <v>97</v>
       </c>
       <c r="AJ104" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK104" t="b">
         <v>1</v>
@@ -25843,23 +25450,23 @@
       <c r="BG104" t="s">
         <v>99</v>
       </c>
-      <c r="BH104" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI104" t="s">
-        <v>264</v>
+      <c r="BH104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1</v>
       </c>
       <c r="BJ104" t="b">
         <v>1</v>
       </c>
       <c r="BK104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL104" t="n">
         <v>1</v>
       </c>
       <c r="BM104" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN104" t="b">
         <v>0</v>
@@ -25937,10 +25544,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
         <v>91</v>
@@ -25949,7 +25556,7 @@
         <v>92</v>
       </c>
       <c r="F105" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G105" t="n">
         <v>30</v>
@@ -25964,19 +25571,19 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
+        <v>103</v>
+      </c>
+      <c r="L105" t="s">
         <v>104</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>105</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>106</v>
       </c>
-      <c r="N105" t="s">
-        <v>107</v>
-      </c>
       <c r="O105" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="P105" t="s">
         <v>95</v>
@@ -26039,7 +25646,7 @@
         <v>97</v>
       </c>
       <c r="AJ105" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK105" t="b">
         <v>1</v>
@@ -26080,23 +25687,23 @@
       <c r="BG105" t="s">
         <v>99</v>
       </c>
-      <c r="BH105" t="s">
-        <v>265</v>
-      </c>
-      <c r="BI105" t="s">
-        <v>266</v>
+      <c r="BH105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1</v>
       </c>
       <c r="BJ105" t="b">
         <v>1</v>
       </c>
       <c r="BK105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL105" t="n">
         <v>3</v>
       </c>
       <c r="BM105" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN105" t="b">
         <v>0</v>
@@ -26174,10 +25781,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
         <v>91</v>
@@ -26186,7 +25793,7 @@
         <v>92</v>
       </c>
       <c r="F106" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G106" t="n">
         <v>55</v>
@@ -26201,53 +25808,53 @@
         <v>2</v>
       </c>
       <c r="K106" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M106" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N106" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O106"/>
       <c r="P106" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q106" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" t="b">
+        <v>0</v>
+      </c>
+      <c r="S106" t="b">
+        <v>0</v>
+      </c>
+      <c r="T106" t="b">
+        <v>0</v>
+      </c>
+      <c r="U106" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" t="b">
+        <v>1</v>
+      </c>
+      <c r="W106" t="b">
+        <v>1</v>
+      </c>
+      <c r="X106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="s">
         <v>137</v>
-      </c>
-      <c r="Q106" t="b">
-        <v>0</v>
-      </c>
-      <c r="R106" t="b">
-        <v>0</v>
-      </c>
-      <c r="S106" t="b">
-        <v>0</v>
-      </c>
-      <c r="T106" t="b">
-        <v>0</v>
-      </c>
-      <c r="U106" t="b">
-        <v>0</v>
-      </c>
-      <c r="V106" t="b">
-        <v>1</v>
-      </c>
-      <c r="W106" t="b">
-        <v>1</v>
-      </c>
-      <c r="X106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z106" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>162</v>
       </c>
       <c r="AB106" t="b">
         <v>0</v>
@@ -26274,7 +25881,7 @@
         <v>97</v>
       </c>
       <c r="AJ106" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK106" t="b">
         <v>1</v>
@@ -26337,23 +25944,23 @@
       <c r="BG106" t="s">
         <v>99</v>
       </c>
-      <c r="BH106" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI106" t="s">
-        <v>169</v>
+      <c r="BH106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1</v>
       </c>
       <c r="BJ106" t="b">
         <v>1</v>
       </c>
       <c r="BK106" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL106" t="n">
         <v>0</v>
       </c>
       <c r="BM106" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN106" t="b">
         <v>0</v>
@@ -26431,10 +26038,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D107" t="s">
         <v>91</v>
@@ -26443,7 +26050,7 @@
         <v>92</v>
       </c>
       <c r="F107" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G107" t="n">
         <v>30</v>
@@ -26498,7 +26105,7 @@
         <v>1</v>
       </c>
       <c r="AA107" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB107" t="b">
         <v>0</v>
@@ -26588,23 +26195,23 @@
       <c r="BG107" t="s">
         <v>99</v>
       </c>
-      <c r="BH107" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI107" t="s">
-        <v>203</v>
+      <c r="BH107" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>2</v>
       </c>
       <c r="BJ107" t="b">
         <v>1</v>
       </c>
       <c r="BK107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL107" t="n">
         <v>3</v>
       </c>
       <c r="BM107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN107" t="b">
         <v>0</v>
@@ -26666,10 +26273,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
         <v>91</v>
@@ -26693,19 +26300,19 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L108" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M108" t="s">
+        <v>105</v>
+      </c>
+      <c r="N108" t="s">
         <v>106</v>
       </c>
-      <c r="N108" t="s">
+      <c r="O108" t="s">
         <v>107</v>
-      </c>
-      <c r="O108" t="s">
-        <v>108</v>
       </c>
       <c r="P108" t="s">
         <v>95</v>
@@ -26741,7 +26348,7 @@
         <v>0</v>
       </c>
       <c r="AA108" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB108" t="b">
         <v>0</v>
@@ -26809,11 +26416,11 @@
       <c r="BG108" t="s">
         <v>99</v>
       </c>
-      <c r="BH108" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI108" t="s">
-        <v>268</v>
+      <c r="BH108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1</v>
       </c>
       <c r="BJ108" t="b">
         <v>0</v>
@@ -26893,10 +26500,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
         <v>91</v>
@@ -26920,16 +26527,16 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L109" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M109" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N109" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O109"/>
       <c r="P109" t="s">
@@ -26993,7 +26600,7 @@
         <v>97</v>
       </c>
       <c r="AJ109" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK109" t="b">
         <v>1</v>
@@ -27056,23 +26663,23 @@
       <c r="BG109" t="s">
         <v>99</v>
       </c>
-      <c r="BH109" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI109" t="s">
-        <v>180</v>
+      <c r="BH109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0</v>
       </c>
       <c r="BJ109" t="b">
         <v>1</v>
       </c>
       <c r="BK109" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL109" t="n">
         <v>0</v>
       </c>
       <c r="BM109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN109" t="b">
         <v>1</v>
@@ -27150,19 +26757,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
         <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G110" t="n">
         <v>50</v>
@@ -27217,7 +26824,7 @@
         <v>0</v>
       </c>
       <c r="AA110" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB110" t="b">
         <v>0</v>
@@ -27244,7 +26851,7 @@
         <v>97</v>
       </c>
       <c r="AJ110" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK110" t="b">
         <v>0</v>
@@ -27307,23 +26914,23 @@
       <c r="BG110" t="s">
         <v>99</v>
       </c>
-      <c r="BH110" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI110" t="s">
-        <v>270</v>
+      <c r="BH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>0</v>
       </c>
       <c r="BJ110" t="b">
         <v>1</v>
       </c>
       <c r="BK110" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL110" t="n">
         <v>3</v>
       </c>
       <c r="BM110" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN110" t="b">
         <v>0</v>
@@ -27395,19 +27002,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E111" t="s">
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G111" t="n">
         <v>8</v>
@@ -27489,7 +27096,7 @@
         <v>97</v>
       </c>
       <c r="AJ111" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK111" t="b">
         <v>1</v>
@@ -27550,23 +27157,23 @@
       <c r="BG111" t="s">
         <v>99</v>
       </c>
-      <c r="BH111" t="s">
-        <v>235</v>
-      </c>
-      <c r="BI111" t="s">
-        <v>271</v>
+      <c r="BH111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0</v>
       </c>
       <c r="BJ111" t="b">
         <v>1</v>
       </c>
       <c r="BK111" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL111" t="n">
         <v>2</v>
       </c>
       <c r="BM111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN111" t="b">
         <v>0</v>
@@ -27638,10 +27245,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D112" t="s">
         <v>91</v>
@@ -27665,16 +27272,16 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L112" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M112" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N112" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O112"/>
       <c r="P112" t="s">
@@ -27711,7 +27318,7 @@
         <v>0</v>
       </c>
       <c r="AA112" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB112" t="b">
         <v>0</v>
@@ -27738,7 +27345,7 @@
         <v>97</v>
       </c>
       <c r="AJ112" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK112" t="b">
         <v>1</v>
@@ -27797,7 +27404,7 @@
       <c r="BE112"/>
       <c r="BF112"/>
       <c r="BG112" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BH112"/>
       <c r="BI112"/>
@@ -27805,13 +27412,13 @@
         <v>1</v>
       </c>
       <c r="BK112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL112" t="n">
         <v>0</v>
       </c>
       <c r="BM112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN112" t="b">
         <v>0</v>
@@ -27889,19 +27496,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E113" t="s">
         <v>92</v>
       </c>
       <c r="F113" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G113" t="n">
         <v>13</v>
@@ -27916,19 +27523,19 @@
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L113" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M113" t="s">
+        <v>105</v>
+      </c>
+      <c r="N113" t="s">
         <v>106</v>
       </c>
-      <c r="N113" t="s">
+      <c r="O113" t="s">
         <v>107</v>
-      </c>
-      <c r="O113" t="s">
-        <v>108</v>
       </c>
       <c r="P113" t="s">
         <v>95</v>
@@ -27964,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="AA113" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB113" t="b">
         <v>0</v>
@@ -28054,23 +27661,23 @@
       <c r="BG113" t="s">
         <v>99</v>
       </c>
-      <c r="BH113" t="s">
-        <v>168</v>
-      </c>
-      <c r="BI113" t="s">
-        <v>169</v>
+      <c r="BH113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1</v>
       </c>
       <c r="BJ113" t="b">
         <v>1</v>
       </c>
       <c r="BK113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BL113" t="n">
         <v>0</v>
       </c>
       <c r="BM113" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN113" t="b">
         <v>0</v>
@@ -28148,10 +27755,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D114" t="s">
         <v>91</v>
@@ -28215,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="AA114" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB114" t="b">
         <v>0</v>
@@ -28242,7 +27849,7 @@
         <v>97</v>
       </c>
       <c r="AJ114" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="AK114" t="b">
         <v>1</v>
@@ -28283,11 +27890,11 @@
       <c r="BG114" t="s">
         <v>99</v>
       </c>
-      <c r="BH114" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI114" t="s">
-        <v>164</v>
+      <c r="BH114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0</v>
       </c>
       <c r="BJ114" t="b">
         <v>0</v>
@@ -28367,10 +27974,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D115" t="s">
         <v>91</v>
@@ -28394,16 +28001,16 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L115" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M115" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="N115" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O115"/>
       <c r="P115" t="s">
@@ -28440,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="AA115" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AB115" t="b">
         <v>0</v>
@@ -28464,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="AI115" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="AJ115" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK115" t="b">
         <v>1</v>
@@ -28530,11 +28137,11 @@
       <c r="BG115" t="s">
         <v>99</v>
       </c>
-      <c r="BH115" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI115" t="s">
-        <v>274</v>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0</v>
       </c>
       <c r="BJ115" t="b">
         <v>0</v>
@@ -28614,10 +28221,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
         <v>91</v>
@@ -28626,7 +28233,7 @@
         <v>92</v>
       </c>
       <c r="F116" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G116" t="n">
         <v>20</v>
@@ -28681,7 +28288,7 @@
         <v>0</v>
       </c>
       <c r="AA116" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB116" t="b">
         <v>0</v>
@@ -28771,23 +28378,23 @@
       <c r="BG116" t="s">
         <v>99</v>
       </c>
-      <c r="BH116" t="s">
-        <v>275</v>
-      </c>
-      <c r="BI116" t="s">
-        <v>276</v>
+      <c r="BH116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0</v>
       </c>
       <c r="BJ116" t="b">
         <v>1</v>
       </c>
       <c r="BK116" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL116" t="n">
         <v>0</v>
       </c>
       <c r="BM116" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN116" t="b">
         <v>0</v>
@@ -28865,10 +28472,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D117" t="s">
         <v>91</v>
@@ -28932,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="AA117" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB117" t="b">
         <v>0</v>
@@ -28959,7 +28566,7 @@
         <v>97</v>
       </c>
       <c r="AJ117" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AK117" t="b">
         <v>1</v>
@@ -29022,23 +28629,23 @@
       <c r="BG117" t="s">
         <v>99</v>
       </c>
-      <c r="BH117" t="s">
-        <v>277</v>
-      </c>
-      <c r="BI117" t="s">
-        <v>278</v>
+      <c r="BH117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>0</v>
       </c>
       <c r="BJ117" t="b">
         <v>1</v>
       </c>
       <c r="BK117" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="BL117" t="n">
         <v>0</v>
       </c>
       <c r="BM117" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BN117" t="b">
         <v>0</v>
